--- a/development/07-connections/B1.xlsx
+++ b/development/07-connections/B1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Graduation-project\development\07-connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11508"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,11 +887,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,12 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -921,11 +921,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -937,6 +934,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1249,19 +1249,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>277905</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>492488</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>162221</xdr:rowOff>
+      <xdr:colOff>297113</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>273462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1274,8 +1274,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4191000" y="4078941"/>
-          <a:ext cx="3943900" cy="6134956"/>
+          <a:off x="4419599" y="4383741"/>
+          <a:ext cx="3676808" cy="4406192"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1552,71 +1552,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.140625" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.109375" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="Q1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,14 +1639,14 @@
       <c r="Q3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="9">
         <f>IF((B7-L3)/2-L12&gt;0,(B7-L3)/2-L12,"no stiffeners required ")</f>
         <v>11.443809065191434</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="V3" s="2">
@@ -1657,7 +1657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="Q4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="9">
         <f>IF(B19&gt;0, IF(B21, B21, _xlfn.CEILING.MATH(L3/3)), 0)</f>
         <v>20</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="Q6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="9">
         <f>MAX(B20,R5)</f>
         <v>1.5</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="Q7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="10">
         <f>MIN(R6,B6)</f>
         <v>1.5</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="K12" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="9">
         <f>POWER(L21*POWER(B12,3)/(6*L19),0.5)</f>
         <v>7.0561909348085647</v>
       </c>
@@ -1990,13 +1990,13 @@
       <c r="S12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="U12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+    </row>
+    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2006,11 +2006,11 @@
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
       <c r="Q13" s="4" t="s">
         <v>78</v>
       </c>
@@ -2021,11 +2021,11 @@
       <c r="S13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+    </row>
+    <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>safe</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="U14" s="8" t="s">
+      <c r="U14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="V14" s="2">
@@ -2064,7 +2064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>63</v>
       </c>
@@ -2187,11 +2187,11 @@
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
       <c r="U18" s="4" t="s">
         <v>64</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
@@ -2223,11 +2223,11 @@
       <c r="M19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="Q19" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="23"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="22"/>
       <c r="U19" s="4" t="s">
         <v>65</v>
       </c>
@@ -2239,28 +2239,28 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B20" s="5">
         <v>1.5</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="9" t="str">
+      <c r="L20" s="8" t="str">
         <f>IF(L19*1000 &lt; B11, "safe", "unsafe")</f>
         <v>safe</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="19"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24"/>
       <c r="S20" s="25"/>
-      <c r="U20" s="8" t="s">
+      <c r="U20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="V20" s="2" t="str">
@@ -2269,14 +2269,14 @@
       </c>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B21" s="5">
         <v>20</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -2292,7 +2292,7 @@
       <c r="Q21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="R21" s="13" t="str">
+      <c r="R21" s="9" t="str">
         <f>IF((B8-B5)/2 - L12 &gt; 0, (B8-B5)/2 - L12, "no stiffeners required")</f>
         <v>no stiffeners required</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>90</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="Q22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="9">
         <f>IF(B22&gt;0, IF(B24, B24, _xlfn.CEILING.MATH(L3/3)), 0)</f>
         <v>0</v>
       </c>
@@ -2331,14 +2331,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B23" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K23" s="4" t="s">
@@ -2362,14 +2362,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B24" s="5">
         <v>16</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -2385,7 +2385,7 @@
       <c r="Q24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="9">
         <f>MAX(B23,R23)</f>
         <v>2</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K25" s="4" t="s">
         <v>93</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="Q25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="10">
         <f>MIN(R24,B6)</f>
         <v>2</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K26" s="4" t="s">
         <v>94</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K27" s="4" t="s">
         <v>42</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="K28" s="4" t="s">
         <v>34</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q29" s="4" t="s">
         <v>76</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
       <c r="Q30" s="4" t="s">
         <v>79</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
       <c r="Q31" s="4" t="s">
         <v>78</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="Q32" s="4" t="s">
         <v>80</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="17:19" ht="18" x14ac:dyDescent="0.35">
       <c r="Q33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="17:19" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="34" spans="17:19" ht="25.8" x14ac:dyDescent="0.5">
       <c r="Q34" s="4" t="s">
         <v>32</v>
       </c>
@@ -2551,16 +2551,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="Q19:S20"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="U1:W2"/>
+    <mergeCell ref="U12:W13"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="F1:H2"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="Q1:S2"/>
-    <mergeCell ref="Q19:S20"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="K1:M2"/>
-    <mergeCell ref="U1:W2"/>
-    <mergeCell ref="U12:W13"/>
   </mergeCells>
   <conditionalFormatting sqref="V7:V9">
     <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
@@ -2571,10 +2571,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="30" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/development/07-connections/B1.xlsx
+++ b/development/07-connections/B1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Graduation-project\development\07-connections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Graduation-project\development\07-connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
   <si>
     <t>web length</t>
   </si>
@@ -108,9 +109,6 @@
   </si>
   <si>
     <t>stiffenere</t>
-  </si>
-  <si>
-    <t>stiffeners length , bst</t>
   </si>
   <si>
     <t>cm4</t>
@@ -554,6 +552,21 @@
     <t>total inertia , Ix , n direction</t>
   </si>
   <si>
+    <t>m direction stiffneres , flanges plan perpendicular stiffeners</t>
+  </si>
+  <si>
+    <t>web plan perpendicular stiffeners , welded on flages</t>
+  </si>
+  <si>
+    <t>min stifferer plan length ,bst,min</t>
+  </si>
+  <si>
+    <t>stiffeners length , hst</t>
+  </si>
+  <si>
+    <t>stiffeners heigth , hst</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">min stifferer plan length , </t>
     </r>
@@ -566,7 +579,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>L</t>
+      <t>b</t>
     </r>
     <r>
       <rPr>
@@ -581,10 +594,16 @@
     </r>
   </si>
   <si>
-    <t>m direction stiffneres , flanges plan perpendicular stiffeners</t>
-  </si>
-  <si>
-    <t>web plan perpendicular stiffeners , welded on flages</t>
+    <t>flanges plan stiffeners choices</t>
+  </si>
+  <si>
+    <t>stiffeners weld area</t>
+  </si>
+  <si>
+    <t>stiffeners to plate weld thickness</t>
+  </si>
+  <si>
+    <t>Stiffeners should be welded at least with minimum weld thickness to resist shear flow to act with plate as one section equals 0.4 cm</t>
   </si>
 </sst>
 </file>
@@ -692,15 +711,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,6 +734,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -866,12 +889,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,30 +924,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -942,8 +942,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
@@ -1211,15 +1239,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>187069</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>409930</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>95682</xdr:rowOff>
+      <xdr:colOff>292199</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>174366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1236,8 +1264,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933950" y="428625"/>
-          <a:ext cx="2543530" cy="3096057"/>
+          <a:off x="4825330" y="2645406"/>
+          <a:ext cx="2556782" cy="3119721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1249,15 +1277,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>277905</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>250691</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>297113</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>273462</xdr:rowOff>
+      <xdr:colOff>269899</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1274,8 +1302,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419599" y="4383741"/>
-          <a:ext cx="3676808" cy="4406192"/>
+          <a:off x="4278405" y="7052502"/>
+          <a:ext cx="3693137" cy="4365210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1550,73 +1578,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.109375" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="E1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="K1" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="Q1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="Q1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="U1" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+    </row>
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
       <c r="T2" s="6"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-    </row>
-    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1626,6 +1660,11 @@
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1637,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R3" s="9">
         <f>IF((B7-L3)/2-L12&gt;0,(B7-L3)/2-L12,"no stiffeners required ")</f>
@@ -1647,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V3" s="2">
         <f>(PI()*B15*B15/4)/100</f>
@@ -1657,9 +1696,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5">
         <v>1.5</v>
@@ -1667,6 +1706,11 @@
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="K4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +1722,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="R4" s="9">
         <f>IF(B19&gt;0, IF(B21, B21, _xlfn.CEILING.MATH(L3/3)), 0)</f>
@@ -1688,17 +1732,17 @@
         <v>15</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V4" s="2">
         <f>0.35 * B15 * 0.85 *V3</f>
         <v>2.3365595361074085</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1708,6 +1752,11 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="K5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1719,7 +1768,7 @@
         <v>15</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R5" s="2">
         <f>IF(B19 &gt;0, R4/16, 0)</f>
@@ -1729,17 +1778,17 @@
         <v>15</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V5" s="2">
         <f>B15*B12*0.1*0.85*1.2*B14</f>
         <v>10.608000000000001</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1749,6 +1798,11 @@
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
       <c r="K6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1760,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R6" s="9">
         <f>MAX(B20,R5)</f>
@@ -1770,17 +1824,17 @@
         <v>15</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V6" s="2">
         <f>MIN(V4:V5)</f>
         <v>2.3365595361074085</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1801,7 +1855,7 @@
         <v>15</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R7" s="10">
         <f>MIN(R6,B6)</f>
@@ -1811,7 +1865,7 @@
         <v>15</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V7" s="2">
         <f>V6*B16</f>
@@ -1821,7 +1875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1831,13 +1885,13 @@
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="K8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
       <c r="Q8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R8" s="2">
         <f>2*R4</f>
@@ -1847,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V8" s="2">
         <f>MIN(300, 20*B15) / 10</f>
@@ -1857,7 +1911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1878,7 +1932,7 @@
         <v>16</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R9" s="2">
         <f>L19*B8*L6</f>
@@ -1888,7 +1942,7 @@
         <v>17</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V9" s="2" t="str">
         <f>IF(V7&gt;B10, "safe", "unsafe")</f>
@@ -1898,7 +1952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1909,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2">
         <f>B12*B8</f>
@@ -1919,7 +1973,7 @@
         <v>16</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R10" s="2">
         <f>R9/B19</f>
@@ -1929,7 +1983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1940,27 +1994,27 @@
         <v>19</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="2">
         <f>B8*POWER(B12,3)/12</f>
         <v>20</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R11" s="2">
         <f>R10/(R8*R7)</f>
         <v>0.34185294117647064</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1971,7 +2025,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12" s="9">
         <f>POWER(L21*POWER(B12,3)/(6*L19),0.5)</f>
@@ -1981,22 +2035,22 @@
         <v>15</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R12" s="2">
         <f>L17 * (R4-L22) / L23</f>
         <v>0.78714969442322402</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-    </row>
-    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+    </row>
+    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -2006,28 +2060,28 @@
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
+      <c r="K13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
       <c r="Q13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R13" s="2">
         <f>POWER(POWER(R12,2)+3*POWER(R11,2),0.5)</f>
         <v>0.98498474181257523</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-    </row>
-    <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+    </row>
+    <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2">
         <v>5.2</v>
@@ -2043,10 +2097,10 @@
         <v>1.7005882352941177</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R14" s="2" t="str">
         <f>IF(AND(R13 &lt; V14*1.1, R12&lt;V14,R11&lt;V14), "safe", "unsafe")</f>
@@ -2054,25 +2108,25 @@
       </c>
       <c r="S14" s="3"/>
       <c r="U14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V14" s="2">
         <f>0.2 * B14</f>
         <v>1.04</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5">
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>22</v>
@@ -2082,10 +2136,10 @@
         <v>13.469005882352944</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="2">
         <f>R5*R4*B19</f>
@@ -2095,7 +2149,7 @@
         <v>16</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V15" s="2">
         <f>2*B5+2*(B5-B4-2)-B19*2*R6</f>
@@ -2105,18 +2159,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="4">
         <f>L14*B7</f>
@@ -2126,29 +2180,29 @@
         <v>23</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R16" s="2">
         <f>POWER(R4,3)*R5/12</f>
         <v>833.33333333333337</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="V16" s="2">
-        <f>(B3-2)*2</f>
-        <v>84</v>
+        <f>(MAX(R3,R17)-R17)*2*R17*B19*2+B22*2*(MAX(R21,R35)-R35)*R35</f>
+        <v>35.34018900861259</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
@@ -2157,7 +2211,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L17" s="2">
         <f>L15*B8</f>
@@ -2166,20 +2220,29 @@
       <c r="M17" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="Q17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="U17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V17" s="2">
-        <f>B9/(V15*B17 + V16*B18)</f>
-        <v>1.0056818181818181</v>
+        <f>(B3-2)*2</f>
+        <v>84</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5">
         <v>0.5</v>
@@ -2187,25 +2250,25 @@
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="U18" s="4" t="s">
-        <v>64</v>
+      <c r="K18" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="U18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="V18" s="2">
-        <f>B10/(V15*B17 + V16*B18)</f>
-        <v>2.2727272727272728E-2</v>
+        <f>B9/(V15*B17 + V17*B18 + V16)</f>
+        <v>0.83751226319186667</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
@@ -2223,25 +2286,25 @@
       <c r="M19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="R19" s="21"/>
-      <c r="S19" s="22"/>
+      <c r="Q19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
       <c r="U19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V19" s="2">
+        <f>B10/(V15*B17 + V17*B18 + V16)</f>
+        <v>1.8926830806595858E-2</v>
+      </c>
+      <c r="W19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V19" s="2">
-        <f>POWER(POWER(V17,2) +3*POWER(V18,2),0.5)</f>
-        <v>1.0064519393385594</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5">
         <v>1.5</v>
@@ -2257,21 +2320,23 @@
         <v>safe</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="25"/>
-      <c r="U20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V20" s="2" t="str">
-        <f>IF(AND(MAX(V17:V18) &lt; V14, V19 &lt; V14*1.1), "safe", "unsafe")</f>
-        <v>safe</v>
-      </c>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+      <c r="U20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" s="2">
+        <f>POWER(POWER(V18,2) +3*POWER(V19,2),0.5)</f>
+        <v>0.83815360511657233</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="5">
         <v>20</v>
@@ -2290,19 +2355,27 @@
         <v>18</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="9" t="str">
-        <f>IF((B8-B5)/2 - L12 &gt; 0, (B8-B5)/2 - L12, "no stiffeners required")</f>
-        <v>no stiffeners required</v>
+        <v>99</v>
+      </c>
+      <c r="R21" s="9">
+        <f>IF((B8-B5)/2 - L12 &gt; 0, (B8-B5)/2 - L12, 0)</f>
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" s="2" t="str">
+        <f>IF(AND(MAX(V18:V19) &lt; V14, V20 &lt; V14*1.1), "safe", "unsafe")</f>
+        <v>safe</v>
+      </c>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
@@ -2311,7 +2384,7 @@
         <v>27</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L22" s="2">
         <f>(L10*B12/2 + B19 * R15 * (R4/2 +B12)) / ( L10 +B19*R15)</f>
@@ -2321,7 +2394,7 @@
         <v>15</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="R22" s="9">
         <f>IF(B22&gt;0, IF(B24, B24, _xlfn.CEILING.MATH(L3/3)), 0)</f>
@@ -2331,9 +2404,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="5">
         <v>2</v>
@@ -2342,17 +2415,17 @@
         <v>15</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L23" s="2">
         <f>L11+B19*R16+L10*POWER(B12/2-L22,2)+B19*R15*POWER(B12+R4/2-L22,2)</f>
         <v>6224.166666666667</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R23" s="2">
         <f>IF(B22 &gt;0, R22/16, 0)</f>
@@ -2362,9 +2435,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="5">
         <v>16</v>
@@ -2373,17 +2446,17 @@
         <v>15</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24" s="2">
         <f>L17 * MAX(B12+R4-L22,L22) / L23</f>
         <v>0.9169888192765393</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R24" s="9">
         <f>MAX(B23,R23)</f>
@@ -2393,9 +2466,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L25" s="2">
         <f>(L10*B12/2 + B22 * R33 * (R22/2 +B12)) / ( L10 +B22*R33)</f>
@@ -2405,7 +2478,7 @@
         <v>15</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R25" s="10">
         <f>MIN(R24,B6)</f>
@@ -2415,19 +2488,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L26" s="2">
         <f>L11+B22*R34+L10*POWER(B12/2-L22,2)+B22*R33*POWER(B12+R22/2-L22,2)</f>
         <v>2855.9375</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R26" s="2">
         <f>2*R22</f>
@@ -2437,19 +2510,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L27" s="2">
         <f>L16 * (B12/2) / L26</f>
         <v>5.0613852719115879E-2</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R27" s="2">
         <f>L19*B7*L7</f>
@@ -2459,9 +2532,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28" s="2" t="str">
         <f>IF( AND(L27&lt;L21, L24&lt;L21), "safe", "unsafe")</f>
@@ -2469,7 +2542,7 @@
       </c>
       <c r="M28" s="3"/>
       <c r="Q28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R28" s="2" t="e">
         <f>R27/B22</f>
@@ -2479,45 +2552,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q29" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R29" s="2" t="e">
         <f>R28/(R26*R25)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Q30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R30" s="2">
         <f>L16 * (R22-L25) / L26</f>
         <v>-5.0613852719115879E-2</v>
       </c>
       <c r="S30" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q31" s="4" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="Q31" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="R31" s="2" t="e">
         <f>POWER(POWER(R30,2)+3*POWER(R29,2),0.5)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R32" s="2" t="e">
         <f>IF(AND(R31 &lt; V14*1.1, R30&lt;V14,R29&lt;V14), "safe", "unsafe")</f>
@@ -2525,9 +2598,9 @@
       </c>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="17:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R33" s="2">
         <f>R23*R22*B22</f>
@@ -2537,16 +2610,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="17:19" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="34" spans="17:19" ht="26.25" x14ac:dyDescent="0.4">
       <c r="Q34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R34" s="2">
         <f>POWER(R22,3)*R23/12</f>
         <v>0</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2558,9 +2642,9 @@
     <mergeCell ref="U12:W13"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="K13:M13"/>
-    <mergeCell ref="F1:H2"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="Q1:S2"/>
+    <mergeCell ref="E1:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="V7:V9">
     <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
@@ -2586,7 +2670,7 @@
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V19">
+  <conditionalFormatting sqref="V19:V20">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2594,7 +2678,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V19">
+  <conditionalFormatting sqref="V20">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -2602,7 +2686,7 @@
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V20">
+  <conditionalFormatting sqref="V21">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -2655,5 +2739,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$3:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B22</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>